--- a/API_Results_temp.xlsx
+++ b/API_Results_temp.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Operation</t>
   </si>
@@ -63,6 +63,27 @@
   </si>
   <si>
     <t>GET</t>
+  </si>
+  <si>
+    <t>ff8081819782e69e019908606a771630</t>
+  </si>
+  <si>
+    <t>2025-09-02T03:02:40.503+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-02 08:32:40</t>
+  </si>
+  <si>
+    <t>ff8081819782e69e0199086097711631</t>
+  </si>
+  <si>
+    <t>2025-09-02T03:02:52.017+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-02 08:32:51</t>
+  </si>
+  <si>
+    <t>2025-09-02 08:32:52</t>
   </si>
 </sst>
 </file>
@@ -114,14 +135,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.4612627029419" customWidth="1"/>
-    <col min="2" max="2" width="51.6501541137695" customWidth="1"/>
+    <col min="2" max="2" width="52.8947143554688" customWidth="1"/>
     <col min="3" max="3" width="38.1595039367676" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="10.7822723388672" customWidth="1"/>
@@ -215,6 +236,116 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0">
+        <v>2021</v>
+      </c>
+      <c r="E4" s="0">
+        <v>189.99</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0">
+        <v>2021</v>
+      </c>
+      <c r="E5" s="0">
+        <v>189.99</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0">
+        <v>2021</v>
+      </c>
+      <c r="E6" s="0">
+        <v>189.99</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0">
+        <v>2021</v>
+      </c>
+      <c r="E7" s="0">
+        <v>189.99</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
